--- a/diagnostics/PES-Duration Under 10 min.xlsx
+++ b/diagnostics/PES-Duration Under 10 min.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="2017-05-02" r:id="rId3" sheetId="1"/>
+    <sheet name="2017-05-04" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="263">
   <si>
     <t>DeviceID</t>
   </si>
@@ -660,6 +661,147 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>IMEI_353967070545713</t>
+  </si>
+  <si>
+    <t>IMEI_353967070545234</t>
+  </si>
+  <si>
+    <t>IMEI_353967070545721</t>
+  </si>
+  <si>
+    <t>IMEI_353967070545002</t>
+  </si>
+  <si>
+    <t>KK Demo One</t>
+  </si>
+  <si>
+    <t>KLINIK KESIHATAN BATU ARANG</t>
+  </si>
+  <si>
+    <t>KLINIK KESIHATAN BALAKONG</t>
+  </si>
+  <si>
+    <t>KLINIK KESIHATAN SEMENYIH</t>
+  </si>
+  <si>
+    <t>851218-88-8888</t>
+  </si>
+  <si>
+    <t>601111-11-1111</t>
+  </si>
+  <si>
+    <t>570506-10-6115</t>
+  </si>
+  <si>
+    <t>641117-02-5798</t>
+  </si>
+  <si>
+    <t>511223-05-5178</t>
+  </si>
+  <si>
+    <t>600604-03-5140</t>
+  </si>
+  <si>
+    <t>381201-10-5274</t>
+  </si>
+  <si>
+    <t>590130-10-5680</t>
+  </si>
+  <si>
+    <t>Test JY</t>
+  </si>
+  <si>
+    <t>Test haha</t>
+  </si>
+  <si>
+    <t>EJAHAR BASRAN</t>
+  </si>
+  <si>
+    <t>NORMA ISMAIL</t>
+  </si>
+  <si>
+    <t>ZAINUN DARUS</t>
+  </si>
+  <si>
+    <t>ROHIMAH OMAR</t>
+  </si>
+  <si>
+    <t>Chong siew yoong</t>
+  </si>
+  <si>
+    <t>Vilet nasah</t>
+  </si>
+  <si>
+    <t>Ujjkkk</t>
+  </si>
+  <si>
+    <t>Khjjkk</t>
+  </si>
+  <si>
+    <t>0312356</t>
+  </si>
+  <si>
+    <t>Bhjjj</t>
+  </si>
+  <si>
+    <t>0193848650</t>
+  </si>
+  <si>
+    <t>0134288747</t>
+  </si>
+  <si>
+    <t>0126831224</t>
+  </si>
+  <si>
+    <t>0123037735</t>
+  </si>
+  <si>
+    <t>Vxxxx</t>
+  </si>
+  <si>
+    <t>0122242864(daughter)</t>
+  </si>
+  <si>
+    <t>DR ANG</t>
+  </si>
+  <si>
+    <t>Dr Richard</t>
+  </si>
+  <si>
+    <t>Helmi</t>
+  </si>
+  <si>
+    <t>Eliza</t>
+  </si>
+  <si>
+    <t>Default Administrator</t>
+  </si>
+  <si>
+    <t>25254130-8D2D-00DC-827D-9875D484F803</t>
+  </si>
+  <si>
+    <t>244DEB41-E31D-D991-BD88-6EBB3A86D4D5</t>
+  </si>
+  <si>
+    <t>1C419631-97A4-A125-45A2-870667334265</t>
+  </si>
+  <si>
+    <t>926AD37A-BA07-00B3-CB3E-ABD99012896E</t>
+  </si>
+  <si>
+    <t>0AE8F949-CC08-D37D-5605-F496B634777C</t>
+  </si>
+  <si>
+    <t>F9BDAF40-7638-B01D-E387-A280FDDC321E</t>
+  </si>
+  <si>
+    <t>CFC99D1C-AC19-51F5-264C-824C44B483D1</t>
+  </si>
+  <si>
+    <t>82D85F6B-BFED-E880-2208-818F31E8A873</t>
   </si>
 </sst>
 </file>
@@ -698,8 +840,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -6867,4 +7011,9447 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="n" s="4">
+        <v>42845.24752314815</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1001740.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="H2" t="n" s="4">
+        <v>42852.94962265046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M2" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R2" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>163</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>180</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC2" t="n" s="4">
+        <v>42850.44856481481</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="DG2" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="DK2" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN2" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX2" t="n" s="4">
+        <v>42850.450115740736</v>
+      </c>
+      <c r="DY2" t="n" s="4">
+        <v>42850.441828703704</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA2" t="n" s="4">
+        <v>42850.450115740736</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>201</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="n" s="4">
+        <v>42845.18274305556</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1000903.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="H3" t="n" s="4">
+        <v>42853.393957754626</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M3" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R3" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>181</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC3" t="n" s="4">
+        <v>42850.37949074074</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="DG3" t="n" s="4">
+        <v>41809.0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="DK3" t="n" s="4">
+        <v>42526.0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN3" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX3" t="n" s="4">
+        <v>42850.38042824074</v>
+      </c>
+      <c r="DY3" t="n" s="4">
+        <v>42850.37261574074</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>195</v>
+      </c>
+      <c r="EA3" t="n" s="4">
+        <v>42852.68619212963</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>195</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>202</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="n" s="4">
+        <v>42845.20162037037</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1001754.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="H4" t="n" s="4">
+        <v>42853.91413792824</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M4" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R4" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>182</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC4" t="n" s="4">
+        <v>42850.37951388889</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="DG4" t="n" s="4">
+        <v>42528.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="DK4" t="n" s="4">
+        <v>42766.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DN4" t="n" s="4">
+        <v>41402.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX4" t="n" s="4">
+        <v>42850.38366898148</v>
+      </c>
+      <c r="DY4" t="n" s="4">
+        <v>42850.37327546296</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA4" t="n" s="4">
+        <v>42850.93502314815</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>203</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>8.983333333333333</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="n" s="4">
+        <v>42845.20162037037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1001754.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="H5" t="n" s="4">
+        <v>42853.914138113425</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M5" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC5" t="n" s="4">
+        <v>42850.38952546296</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DG5" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="DK5" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="DN5" t="n" s="4">
+        <v>42299.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX5" t="n" s="4">
+        <v>42850.39068287037</v>
+      </c>
+      <c r="DY5" t="n" s="4">
+        <v>42850.383935185186</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA5" t="n" s="4">
+        <v>42850.93524305556</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>204</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>8.05</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="n" s="4">
+        <v>42845.20162037037</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1001754.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1085.0</v>
+      </c>
+      <c r="H6" t="n" s="4">
+        <v>42853.91413885416</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M6" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R6" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC6" t="n" s="4">
+        <v>42850.42609953704</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="DG6" t="n" s="4">
+        <v>40592.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DK6" t="n" s="4">
+        <v>42824.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="DN6" t="n" s="4">
+        <v>42542.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX6" t="n" s="4">
+        <v>42850.42766203704</v>
+      </c>
+      <c r="DY6" t="n" s="4">
+        <v>42850.420590277776</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA6" t="n" s="4">
+        <v>42850.93611111111</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>205</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>7.933333333333334</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="n" s="4">
+        <v>42845.20162037037</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1001754.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="H7" t="n" s="4">
+        <v>42853.91413900463</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R7" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>185</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC7" t="n" s="4">
+        <v>42850.43329861111</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="DG7" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="DK7" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="DN7" t="n" s="4">
+        <v>42592.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX7" t="n" s="4">
+        <v>42850.434016203704</v>
+      </c>
+      <c r="DY7" t="n" s="4">
+        <v>42850.427824074075</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA7" t="n" s="4">
+        <v>42850.936944444446</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>206</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>7.883333333333334</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="n" s="4">
+        <v>42845.20162037037</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1001754.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="H8" t="n" s="4">
+        <v>42853.914139733795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M8" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ8" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ8" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>186</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC8" t="n" s="4">
+        <v>42850.47696759259</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="DG8" t="n" s="4">
+        <v>42614.0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DK8" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="DN8" t="n" s="4">
+        <v>42310.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX8" t="n" s="4">
+        <v>42850.479629629626</v>
+      </c>
+      <c r="DY8" t="n" s="4">
+        <v>42850.47094907408</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA8" t="n" s="4">
+        <v>42850.93796296296</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>207</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="n" s="4">
+        <v>42845.20162037037</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1001754.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="H9" t="n" s="4">
+        <v>42853.914140127315</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M9" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ9" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>187</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC9" t="n" s="4">
+        <v>42850.49524305556</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="DG9" t="n" s="4">
+        <v>41537.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DK9" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="DN9" t="n" s="4">
+        <v>42474.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX9" t="n" s="4">
+        <v>42850.50554398148</v>
+      </c>
+      <c r="DY9" t="n" s="4">
+        <v>42850.488333333335</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA9" t="n" s="4">
+        <v>42850.939039351855</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>208</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>9.95</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="n" s="4">
+        <v>42845.23697916667</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1000831.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="H10" t="n" s="4">
+        <v>42855.87502546296</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R10" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ10" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ10" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC10" t="n" s="4">
+        <v>42850.66108796296</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DG10" t="n" s="4">
+        <v>42576.0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DK10" t="n" s="4">
+        <v>42850.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN10" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX10" t="n" s="4">
+        <v>42850.66545138889</v>
+      </c>
+      <c r="DY10" t="n" s="4">
+        <v>42850.65563657407</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA10" t="n" s="4">
+        <v>42850.66545138889</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>197</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>209</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="n" s="4">
+        <v>42845.23697916667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1000831.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1131.0</v>
+      </c>
+      <c r="H11" t="n" s="4">
+        <v>42855.87502565973</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M11" t="n" s="4">
+        <v>42851.0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R11" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>172</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ11" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ11" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>189</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC11" t="n" s="4">
+        <v>42851.4590625</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG11" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="DK11" t="n" s="4">
+        <v>42851.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="DN11" t="n" s="4">
+        <v>42669.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX11" t="n" s="4">
+        <v>42851.465844907405</v>
+      </c>
+      <c r="DY11" t="n" s="4">
+        <v>42851.452465277776</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA11" t="n" s="4">
+        <v>42851.465844907405</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>197</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>210</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="n" s="4">
+        <v>42845.228842592594</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1000903.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1192.0</v>
+      </c>
+      <c r="H12" t="n" s="4">
+        <v>42856.87895100695</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n" s="4">
+        <v>42848.0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R12" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ12" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ12" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BB12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>190</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC12" t="n" s="4">
+        <v>42848.670381944445</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG12" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="DK12" t="n" s="4">
+        <v>42848.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="DN12" t="n" s="4">
+        <v>42549.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX12" t="n" s="4">
+        <v>42850.42892361111</v>
+      </c>
+      <c r="DY12" t="n" s="4">
+        <v>42848.66363425926</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>198</v>
+      </c>
+      <c r="EA12" t="n" s="4">
+        <v>42850.42982638889</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>198</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>211</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>9.716666666666667</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="n" s="4">
+        <v>42845.23701388889</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1000890.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1455.0</v>
+      </c>
+      <c r="H13" t="n" s="4">
+        <v>42858.865391631945</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M13" t="n" s="4">
+        <v>42857.0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>161</v>
+      </c>
+      <c r="O13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R13" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>175</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ13" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ13" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC13" t="n" s="4">
+        <v>42857.449317129634</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="DG13" t="n" s="4">
+        <v>42479.0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="DK13" t="n" s="4">
+        <v>42857.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="DN13" t="n" s="4">
+        <v>42465.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX13" t="n" s="4">
+        <v>42857.45148148148</v>
+      </c>
+      <c r="DY13" t="n" s="4">
+        <v>42857.44263888889</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA13" t="n" s="4">
+        <v>42857.45148148148</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>213</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>9.616666666666667</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="n" s="4">
+        <v>42845.23697916667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1000901.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1496.0</v>
+      </c>
+      <c r="H14" t="n" s="4">
+        <v>42858.873182372685</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n" s="4">
+        <v>42855.0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R14" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ14" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ14" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>191</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC14" t="n" s="4">
+        <v>42855.411875000005</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG14" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DK14" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN14" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX14" t="n" s="4">
+        <v>42855.41265046297</v>
+      </c>
+      <c r="DY14" t="n" s="4">
+        <v>42855.40510416667</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA14" t="n" s="4">
+        <v>42855.41265046297</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>197</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>212</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="n" s="4">
+        <v>42845.18274305556</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1000902.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1651.0</v>
+      </c>
+      <c r="H15" t="n" s="4">
+        <v>42859.421585648146</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M15" t="n" s="4">
+        <v>42857.0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>176</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ15" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>193</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC15" t="n" s="4">
+        <v>42857.675787037035</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG15" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="DK15" t="n" s="4">
+        <v>42857.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="DN15" t="n" s="4">
+        <v>42857.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX15" t="n" s="4">
+        <v>42857.676400462966</v>
+      </c>
+      <c r="DY15" t="n" s="4">
+        <v>42857.669062500005</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>195</v>
+      </c>
+      <c r="EA15" t="n" s="4">
+        <v>42857.676400462966</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>195</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>214</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>9.683333333333334</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="n" s="4">
+        <v>42847.56244212963</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9000001.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1676.0</v>
+      </c>
+      <c r="H16" t="n" s="4">
+        <v>42859.89337387732</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" t="n" s="4">
+        <v>42847.0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R16" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>232</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC16" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ16" t="n" s="4">
+        <v>41730.0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AQ16" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>242</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC16" t="n" s="4">
+        <v>42847.910208333335</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DG16" t="n" s="4">
+        <v>42847.0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="DK16" t="n" s="4">
+        <v>42839.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DN16" t="n" s="4">
+        <v>42846.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX16" t="n" s="4">
+        <v>42847.91097222222</v>
+      </c>
+      <c r="DY16" t="n" s="4">
+        <v>42847.90739583333</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>250</v>
+      </c>
+      <c r="EA16" t="n" s="4">
+        <v>42851.48178240741</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>254</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>255</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" t="n" s="4">
+        <v>42847.56244212963</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9000001.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1677.0</v>
+      </c>
+      <c r="H17" t="n" s="4">
+        <v>42859.893374074076</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M17" t="n" s="4">
+        <v>42846.0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>233</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AJ17" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ17" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>243</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC17" t="n" s="4">
+        <v>42847.926145833335</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DG17" t="n" s="4">
+        <v>42845.0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="DK17" t="n" s="4">
+        <v>42845.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN17" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>178</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX17" t="n" s="4">
+        <v>42847.92646990741</v>
+      </c>
+      <c r="DY17" t="n" s="4">
+        <v>42847.92449074074</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>250</v>
+      </c>
+      <c r="EA17" t="n" s="4">
+        <v>42848.95674768518</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>250</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>256</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>2.3833333333333333</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="n" s="4">
+        <v>42845.22385416667</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1001726.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1693.0</v>
+      </c>
+      <c r="H18" t="n" s="4">
+        <v>42859.9180815162</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M18" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R18" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>234</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ18" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ18" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>244</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC18" t="n" s="4">
+        <v>42858.51783564815</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="DG18" t="n" s="4">
+        <v>42660.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DK18" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="DN18" t="n" s="4">
+        <v>42661.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX18" t="n" s="4">
+        <v>42858.51851851852</v>
+      </c>
+      <c r="DY18" t="n" s="4">
+        <v>42858.51096064815</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>251</v>
+      </c>
+      <c r="EA18" t="n" s="4">
+        <v>42858.552893518514</v>
+      </c>
+      <c r="EB18" t="s">
+        <v>251</v>
+      </c>
+      <c r="EC18" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" t="n" s="4">
+        <v>42845.22385416667</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1001726.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1697.0</v>
+      </c>
+      <c r="H19" t="n" s="4">
+        <v>42859.91808221064</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>227</v>
+      </c>
+      <c r="O19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R19" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>235</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ19" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ19" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>245</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC19" t="n" s="4">
+        <v>42858.69951388889</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG19" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="DK19" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="DN19" t="n" s="4">
+        <v>42782.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX19" t="n" s="4">
+        <v>42858.70024305556</v>
+      </c>
+      <c r="DY19" t="n" s="4">
+        <v>42858.69295138889</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>251</v>
+      </c>
+      <c r="EA19" t="n" s="4">
+        <v>42858.761828703704</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>251</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>258</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>9.45</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" t="n" s="4">
+        <v>42845.20696759259</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1001726.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" t="n">
+        <v>557.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1707.0</v>
+      </c>
+      <c r="H20" t="n" s="4">
+        <v>42859.91886693287</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M20" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>228</v>
+      </c>
+      <c r="O20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R20" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>236</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ20" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ20" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>246</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC20" t="n" s="4">
+        <v>42858.622083333335</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG20" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DK20" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN20" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR20" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX20" t="n" s="4">
+        <v>42858.70998842592</v>
+      </c>
+      <c r="DY20" t="n" s="4">
+        <v>42858.6153125</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>252</v>
+      </c>
+      <c r="EA20" t="n" s="4">
+        <v>42858.7162962963</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>252</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>259</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" t="n" s="4">
+        <v>42845.20696759259</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1001726.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" t="n">
+        <v>557.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="H21" t="n" s="4">
+        <v>42859.91886767361</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M21" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R21" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>237</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ21" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ21" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BB21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>247</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC21" t="n" s="4">
+        <v>42858.69243055556</v>
+      </c>
+      <c r="DD21" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG21" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="DK21" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="DN21" t="n" s="4">
+        <v>42605.0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DR21" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT21" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX21" t="n" s="4">
+        <v>42858.69540509259</v>
+      </c>
+      <c r="DY21" t="n" s="4">
+        <v>42858.68659722222</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>252</v>
+      </c>
+      <c r="EA21" t="n" s="4">
+        <v>42858.715960648144</v>
+      </c>
+      <c r="EB21" t="s">
+        <v>252</v>
+      </c>
+      <c r="EC21" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="n" s="4">
+        <v>42845.231516203705</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2001607.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="H22" t="n" s="4">
+        <v>42859.921766354164</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P22" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R22" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>238</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ22" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ22" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>248</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC22" t="n" s="4">
+        <v>42858.617118055554</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG22" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DK22" t="n" s="4">
+        <v>42858.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="DN22" t="n" s="4">
+        <v>42821.0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS22" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX22" t="n" s="4">
+        <v>42858.62274305556</v>
+      </c>
+      <c r="DY22" t="n" s="4">
+        <v>42858.61072916667</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>253</v>
+      </c>
+      <c r="EA22" t="n" s="4">
+        <v>42858.62274305556</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>253</v>
+      </c>
+      <c r="EC22" t="s">
+        <v>261</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="n" s="4">
+        <v>42845.24752314815</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1001739.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1758.0</v>
+      </c>
+      <c r="H23" t="n" s="4">
+        <v>42860.06632650463</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n" s="4">
+        <v>42859.0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="Q23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R23" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>239</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ23" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ23" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AV23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="AY23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="BF23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>6666.0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>249</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC23" t="n" s="4">
+        <v>42859.67833333333</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="DG23" t="n" s="4">
+        <v>42607.0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="DK23" t="n" s="4">
+        <v>42859.0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN23" t="e" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DR23" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS23" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT23" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX23" t="n" s="4">
+        <v>42859.6787037037</v>
+      </c>
+      <c r="DY23" t="n" s="4">
+        <v>42859.67524305556</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA23" t="n" s="4">
+        <v>42859.6787037037</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC23" t="s">
+        <v>262</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>